--- a/PrepGuide-FrontEnd.xlsx
+++ b/PrepGuide-FrontEnd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Tech\Technical-Learnings\Preparation-Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Tech\preparation-guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CE06E9-19B4-4507-B9FA-D0E45F55780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271F627-047A-40FF-93F4-79E29F860076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="404">
   <si>
     <t>Interfaces</t>
   </si>
@@ -1455,12 +1455,15 @@
   <si>
     <t>Implicit, Explicit, Nominal, Structuring, and Duck Typing</t>
   </si>
+  <si>
+    <t>function composition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,6 +1684,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF262626"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1760,7 +1770,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
@@ -1832,6 +1842,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3315,7 +3326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3677,10 +3688,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F00D5-5E62-4E75-B681-6728BFEA9CC0}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3896,6 +3907,11 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/PrepGuide-FrontEnd.xlsx
+++ b/PrepGuide-FrontEnd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Tech\preparation-guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E271F627-047A-40FF-93F4-79E29F860076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787B4ED-E5E0-433D-B2C1-E5FFEF720946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="405">
   <si>
     <t>Interfaces</t>
   </si>
@@ -1457,6 +1457,9 @@
   </si>
   <si>
     <t>function composition</t>
+  </si>
+  <si>
+    <t>arguments object in arrow function</t>
   </si>
 </sst>
 </file>
@@ -3688,10 +3691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F00D5-5E62-4E75-B681-6728BFEA9CC0}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3912,6 +3915,11 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/PrepGuide-FrontEnd.xlsx
+++ b/PrepGuide-FrontEnd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Tech\preparation-guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9787B4ED-E5E0-433D-B2C1-E5FFEF720946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF114A2B-E739-4F56-B316-7C7BE66A22B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="411">
   <si>
     <t>Interfaces</t>
   </si>
@@ -1460,6 +1460,24 @@
   </si>
   <si>
     <t>arguments object in arrow function</t>
+  </si>
+  <si>
+    <t>What is SSL Error</t>
+  </si>
+  <si>
+    <t>Why do you SSL Error happens</t>
+  </si>
+  <si>
+    <t>The Real Problem behind SSL errors</t>
+  </si>
+  <si>
+    <t>How to Fix SSL errors</t>
+  </si>
+  <si>
+    <t> web security fundamentals</t>
+  </si>
+  <si>
+    <t>what’s safe vs what’s hacky</t>
   </si>
 </sst>
 </file>
@@ -3693,7 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387F00D5-5E62-4E75-B681-6728BFEA9CC0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -4083,10 +4101,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D632F130-B34D-4816-A682-E6451270CB52}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4104,8 +4122,39 @@
         <v>394</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
